--- a/khaddi/src.tests.resourses/com/qa/TestsData/khaddiTestdata.xlsx
+++ b/khaddi/src.tests.resourses/com/qa/TestsData/khaddiTestdata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="52">
   <si>
     <t>Password</t>
   </si>
@@ -1008,8 +1008,12 @@
       <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1034,8 +1038,12 @@
       <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1060,8 +1068,12 @@
       <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1088,8 +1100,12 @@
       <c r="H7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1116,8 +1132,12 @@
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
